--- a/image/documentmanifest.xlsx
+++ b/image/documentmanifest.xlsx
@@ -850,46 +850,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.71484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.2890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="56.5546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.98828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="44.984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.9453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="35.11328125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.515625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="34.875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/documentmanifest.xlsx
+++ b/image/documentmanifest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="223">
   <si>
     <t>Path</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -579,10 +579,6 @@
   </si>
   <si>
     <t>DocumentManifest.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Human-readable description (title)</t>
@@ -850,46 +846,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.2734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="56.5546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.98828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.71484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.2890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="45.265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.515625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="34.875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="44.984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.9453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="35.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3081,19 +3077,19 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3160,13 +3156,13 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3174,7 +3170,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3197,19 +3193,19 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3258,7 +3254,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>50</v>
@@ -3276,13 +3272,13 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3290,7 +3286,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3313,16 +3309,16 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3372,7 +3368,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3384,13 +3380,13 @@
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -3404,7 +3400,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3427,13 +3423,13 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3484,7 +3480,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3502,7 +3498,7 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
@@ -3516,7 +3512,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3545,7 +3541,7 @@
         <v>96</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>98</v>
@@ -3598,7 +3594,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3616,7 +3612,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -3630,11 +3626,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3656,10 +3652,10 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>98</v>
@@ -3714,7 +3710,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3746,7 +3742,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3772,13 +3768,13 @@
         <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3828,7 +3824,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -3860,7 +3856,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3883,16 +3879,16 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3942,7 +3938,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
